--- a/biology/Histoire de la zoologie et de la botanique/Jules_Cardot/Jules_Cardot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jules_Cardot/Jules_Cardot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Cardot, né Pierre Léon Jules Cardot le 18 août 1860 à Stenay (Meuse)[1], mort le 22 novembre 1934 à Charleville[2] est un botaniste français qui se spécialisa surtout dans le domaine de la bryologie, l'étude des mousses.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Cardot, né Pierre Léon Jules Cardot le 18 août 1860 à Stenay (Meuse), mort le 22 novembre 1934 à Charleville est un botaniste français qui se spécialisa surtout dans le domaine de la bryologie, l'étude des mousses.
 </t>
         </is>
       </c>
@@ -511,18 +523,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Cardot est né le 18 août 1860 à Stenay, Meuse, dont son père Jean-Pierre Léon Cardot, agriculteur, fut maire[3]. Il est élève au lycée de Bar-le-Duc, où un de ses condisciples est Raymond Poincaré. Mais des problèmes de santé l'obligent à interrompre ses études. Un ami de son père l'initie à la botanique et l'associe à la publication d'un Catalogue des plantes vasculaires de l'arrondissement de Montmédy. Après avoir étudié les fougères et les phanérogames, il se spécialise dans l'étude des mousses et des lichens, la bryologie. et publie dès 1882 un Catalogue des Mousses et des Hépatiques récoltées aux environs de Stenay et de Montmédy.
-Il étudie plus de 130 espèces de plantes[4] qu'il a décrites notamment dans The Bryologist, le Bulletin de l'Herbier Boissier ou le Bulletin du Muséum national d'histoire naturelle, en particulier dans les genres Aria, Photinia, Potentilla, Prunus, Sorbus, etc.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Cardot est né le 18 août 1860 à Stenay, Meuse, dont son père Jean-Pierre Léon Cardot, agriculteur, fut maire. Il est élève au lycée de Bar-le-Duc, où un de ses condisciples est Raymond Poincaré. Mais des problèmes de santé l'obligent à interrompre ses études. Un ami de son père l'initie à la botanique et l'associe à la publication d'un Catalogue des plantes vasculaires de l'arrondissement de Montmédy. Après avoir étudié les fougères et les phanérogames, il se spécialise dans l'étude des mousses et des lichens, la bryologie. et publie dès 1882 un Catalogue des Mousses et des Hépatiques récoltées aux environs de Stenay et de Montmédy.
+Il étudie plus de 130 espèces de plantes qu'il a décrites notamment dans The Bryologist, le Bulletin de l'Herbier Boissier ou le Bulletin du Muséum national d'histoire naturelle, en particulier dans les genres Aria, Photinia, Potentilla, Prunus, Sorbus, etc.
 Il épouse Marie Piré, fille du botaniste belge Louis Piré et nièce du malacologue Philippe Dautzenberg.
 Il a un fils, Henry en 1886, et s'établit à Charleville.
 De 1882 à 1915, Cardot publie, en français ou en anglais, une douzaine d'ouvrages sur la flore bryologique de l'Europe, de Java, de l'Amérique du Nord, du Japon, de la Corée, de Taïwan, des terres antarctiques; c'est à lui qu'est confiée la détermination des plantes des expéditions antarctiques de Charcot, Gerlache, Nordenskiöld, Shackleton...
 Il détermine et décrit 40 genres nouveaux et près de 1200 espèces inédites qui portent son nom.
 Il effectue de nombreuses expéditions botaniques. Il réalise aussi des études sur les mousses et hépatiques de l'Alaska et de l'Antarctique.
-Son herbier bryologique, comprenant plus de 10 000 espèces, et sa bibliothèque, sont malheureusement pillés pendant les bombardements de Charleville de la Première Guerre mondiale[5]. Ce qui reste de l'herbier a été acquis par le Muséum d’histoire naturelle de Paris.
+Son herbier bryologique, comprenant plus de 10 000 espèces, et sa bibliothèque, sont malheureusement pillés pendant les bombardements de Charleville de la Première Guerre mondiale. Ce qui reste de l'herbier a été acquis par le Muséum d’histoire naturelle de Paris.
 Après la Première Guerre mondiale, Cardot entre à l'agence économique du Gouvernement Général de l'Indochine, dont il est le chef du service scientifique de 1917 à 1931.
-Il meurt d'une crise cardiaque en rangeant les herbiers du musée de Charleville, le 22 novembre 1934[6].
+Il meurt d'une crise cardiaque en rangeant les herbiers du musée de Charleville, le 22 novembre 1934.
 Il est enterré au cimetière Boutet de Charleville.
 </t>
         </is>
@@ -552,7 +566,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jules Cardot et Ferdinand Renauld, Histoire naturelle des plantes mousses, 1913.
 Jules Cardot, La Flore bryologique des Terres Magellaniques, de la Géorgie du Sud et de l'Antarctide, 1908.
@@ -591,12 +607,14 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(Rosaceae) Photinia cardotii F.P.Metcalf[7]
-(Rosaceae) Potentilla cardotiana Hand.-Mazz.[8]
-(Rosaceae) Rosa cardotii Masam.[9]
-(Rosaceae) Rubus cardotii Koidz.[10]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Rosaceae) Photinia cardotii F.P.Metcalf
+(Rosaceae) Potentilla cardotiana Hand.-Mazz.
+(Rosaceae) Rosa cardotii Masam.
+(Rosaceae) Rubus cardotii Koidz.
 Une rue et un square de Charleville-Mézières portent son nom.</t>
         </is>
       </c>
